--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Reln-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Reln-Itga3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H2">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I2">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J2">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N2">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O2">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P2">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q2">
-        <v>1.129774672992</v>
+        <v>0.6327741706686668</v>
       </c>
       <c r="R2">
-        <v>10.167972056928</v>
+        <v>5.694967536018001</v>
       </c>
       <c r="S2">
-        <v>0.006908807573744574</v>
+        <v>0.01673984165126211</v>
       </c>
       <c r="T2">
-        <v>0.01119985774472643</v>
+        <v>0.02637950842665113</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H3">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I3">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J3">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P3">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q3">
-        <v>0.05169715806933333</v>
+        <v>0.02667215489522222</v>
       </c>
       <c r="R3">
-        <v>0.465274422624</v>
+        <v>0.240049394057</v>
       </c>
       <c r="S3">
-        <v>0.0003161388954353109</v>
+        <v>0.0007056034682517807</v>
       </c>
       <c r="T3">
-        <v>0.00051249229605209</v>
+        <v>0.001111926446163171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H4">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I4">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J4">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N4">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O4">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P4">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q4">
-        <v>0.012173755776</v>
+        <v>0.001992891615555555</v>
       </c>
       <c r="R4">
-        <v>0.109563801984</v>
+        <v>0.01793602454</v>
       </c>
       <c r="S4">
-        <v>7.444505361711282E-05</v>
+        <v>5.272132084227605E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001206827663689423</v>
+        <v>8.308098465902402E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H5">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I5">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J5">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N5">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O5">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P5">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q5">
-        <v>0.4464865219680001</v>
+        <v>0.3461966023668334</v>
       </c>
       <c r="R5">
-        <v>2.678919131808001</v>
+        <v>2.077179614201</v>
       </c>
       <c r="S5">
-        <v>0.002730358130952042</v>
+        <v>0.009158522222393724</v>
       </c>
       <c r="T5">
-        <v>0.002950786353256408</v>
+        <v>0.009621648725814618</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H6">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I6">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J6">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N6">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O6">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P6">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q6">
-        <v>0.010351086176</v>
+        <v>0.002049899242222222</v>
       </c>
       <c r="R6">
-        <v>0.093159775584</v>
+        <v>0.01844909318</v>
       </c>
       <c r="S6">
-        <v>6.329904916335289E-05</v>
+        <v>5.422943967447466E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001026139950257366</v>
+        <v>8.545755632984236E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I7">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J7">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N7">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O7">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P7">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q7">
-        <v>2.677107297956001</v>
+        <v>2.906238498418667</v>
       </c>
       <c r="R7">
-        <v>24.09396568160401</v>
+        <v>26.15614648576801</v>
       </c>
       <c r="S7">
-        <v>0.01637106904411571</v>
+        <v>0.07688362534286242</v>
       </c>
       <c r="T7">
-        <v>0.02653911582658436</v>
+        <v>0.1211571940079023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I8">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J8">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P8">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q8">
         <v>0.1225012761035555</v>
@@ -948,10 +948,10 @@
         <v>1.102511484932</v>
       </c>
       <c r="S8">
-        <v>0.0007491208330031422</v>
+        <v>0.003240732727576551</v>
       </c>
       <c r="T8">
-        <v>0.001214398674979849</v>
+        <v>0.005106914275332124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I9">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J9">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N9">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O9">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P9">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q9">
-        <v>0.028846858768</v>
+        <v>0.009153057448888889</v>
       </c>
       <c r="R9">
-        <v>0.259621728912</v>
+        <v>0.08237751704</v>
       </c>
       <c r="S9">
-        <v>0.0001764045531373933</v>
+        <v>0.0002421412557933477</v>
       </c>
       <c r="T9">
-        <v>0.0002859691603177778</v>
+        <v>0.0003815787168547624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I10">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J10">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N10">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O10">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P10">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q10">
-        <v>1.057991788074</v>
+        <v>1.590029967179333</v>
       </c>
       <c r="R10">
-        <v>6.347950728444001</v>
+        <v>9.540179803076001</v>
       </c>
       <c r="S10">
-        <v>0.006469840272704514</v>
+        <v>0.04206374265121616</v>
       </c>
       <c r="T10">
-        <v>0.006992165667947877</v>
+        <v>0.04419081441910695</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I11">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J11">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N11">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O11">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P11">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q11">
-        <v>0.02452787180133334</v>
+        <v>0.009414885075555556</v>
       </c>
       <c r="R11">
-        <v>0.220750846212</v>
+        <v>0.08473396568000001</v>
       </c>
       <c r="S11">
-        <v>0.0001499930477465108</v>
+        <v>0.0002490678233011432</v>
       </c>
       <c r="T11">
-        <v>0.0002431535079719081</v>
+        <v>0.0003924939602451252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H12">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I12">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J12">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N12">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O12">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P12">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q12">
-        <v>108.1290361293975</v>
+        <v>20.150707326394</v>
       </c>
       <c r="R12">
-        <v>648.7742167763851</v>
+        <v>120.904243958364</v>
       </c>
       <c r="S12">
-        <v>0.6612315903436542</v>
+        <v>0.5330806240847498</v>
       </c>
       <c r="T12">
-        <v>0.7146143690856203</v>
+        <v>0.5600373491413465</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H13">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I13">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J13">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.572043</v>
       </c>
       <c r="O13">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P13">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q13">
-        <v>4.947857308450833</v>
+        <v>0.8493753569143332</v>
       </c>
       <c r="R13">
-        <v>29.687143850705</v>
+        <v>5.096252141486</v>
       </c>
       <c r="S13">
-        <v>0.03025717858934036</v>
+        <v>0.02246995790331527</v>
       </c>
       <c r="T13">
-        <v>0.0326999116553021</v>
+        <v>0.02360621469050001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H14">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I14">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J14">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N14">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O14">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P14">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q14">
-        <v>1.16513187063</v>
+        <v>0.06346367715333333</v>
       </c>
       <c r="R14">
-        <v>6.990791223780001</v>
+        <v>0.3807820629199999</v>
       </c>
       <c r="S14">
-        <v>0.007125024205845978</v>
+        <v>0.001678911617127147</v>
       </c>
       <c r="T14">
-        <v>0.007700244138266557</v>
+        <v>0.001763810517616968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H15">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I15">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J15">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N15">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O15">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P15">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q15">
-        <v>42.73255403868375</v>
+        <v>11.0246383860995</v>
       </c>
       <c r="R15">
-        <v>170.930216154735</v>
+        <v>44.098553544398</v>
       </c>
       <c r="S15">
-        <v>0.2613184735377743</v>
+        <v>0.2916533407972588</v>
       </c>
       <c r="T15">
-        <v>0.1882768849570145</v>
+        <v>0.2042677429625818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H16">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I16">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J16">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N16">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O16">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P16">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q16">
-        <v>0.9906869023175</v>
+        <v>0.06527908627333333</v>
       </c>
       <c r="R16">
-        <v>5.944121413905</v>
+        <v>0.39167451764</v>
       </c>
       <c r="S16">
-        <v>0.006058256869765356</v>
+        <v>0.001726937694375123</v>
       </c>
       <c r="T16">
-        <v>0.006547354170565216</v>
+        <v>0.001814265168895642</v>
       </c>
     </row>
   </sheetData>
